--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="282">
   <si>
     <t>API Mode</t>
   </si>
@@ -807,6 +807,87 @@
   </si>
   <si>
     <t>RMA-J098-1-3</t>
+  </si>
+  <si>
+    <t>RMA-8XKB-001</t>
+  </si>
+  <si>
+    <t>RMA-8XKB-002</t>
+  </si>
+  <si>
+    <t>RMA-8XKB-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL0iAAE</t>
+  </si>
+  <si>
+    <t>RMA-8XKB-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL0jAAE</t>
+  </si>
+  <si>
+    <t>RMA-8XKB-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL0kAAE</t>
+  </si>
+  <si>
+    <t>RMA-8XKB-1-3</t>
+  </si>
+  <si>
+    <t>RMA-3STF-001</t>
+  </si>
+  <si>
+    <t>RMA-3STF-002</t>
+  </si>
+  <si>
+    <t>RMA-3STF-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2PAAU</t>
+  </si>
+  <si>
+    <t>RMA-3STF-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2QAAU</t>
+  </si>
+  <si>
+    <t>RMA-3STF-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2RAAU</t>
+  </si>
+  <si>
+    <t>RMA-3STF-1-3</t>
+  </si>
+  <si>
+    <t>RMA-MG41-001</t>
+  </si>
+  <si>
+    <t>RMA-MG41-002</t>
+  </si>
+  <si>
+    <t>RMA-MG41-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL33AAE</t>
+  </si>
+  <si>
+    <t>RMA-MG41-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL34AAE</t>
+  </si>
+  <si>
+    <t>RMA-MG41-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL35AAE</t>
+  </si>
+  <si>
+    <t>RMA-MG41-1-3</t>
   </si>
 </sst>
 </file>
@@ -816,7 +897,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="255" x14ac:knownFonts="1">
+  <fonts count="291" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,6 +917,222 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2358,7 +2655,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="127">
+  <borders count="145">
     <border>
       <left/>
       <right/>
@@ -2744,11 +3041,65 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="291">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3002,8 +3353,44 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="124" fillId="0" fontId="250" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="251" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="125" fillId="0" fontId="252" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="254" fillId="0" borderId="126" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="253" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="126" fillId="0" fontId="254" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="255" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="127" fillId="0" fontId="256" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="257" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="128" fillId="0" fontId="258" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="259" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="129" fillId="0" fontId="260" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="261" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="130" fillId="0" fontId="262" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="263" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="131" fillId="0" fontId="264" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="265" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="132" fillId="0" fontId="266" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="267" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="133" fillId="0" fontId="268" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="269" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="134" fillId="0" fontId="270" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="271" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="135" fillId="0" fontId="272" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="273" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="136" fillId="0" fontId="274" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="275" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="137" fillId="0" fontId="276" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="277" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="138" fillId="0" fontId="278" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="279" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="139" fillId="0" fontId="280" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="281" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="140" fillId="0" fontId="282" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="283" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="141" fillId="0" fontId="284" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="285" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="142" fillId="0" fontId="286" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="287" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="143" fillId="0" fontId="288" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="290" fillId="0" borderId="144" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3790,12 +4177,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.57421875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.1328125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.19921875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -3845,10 +4232,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -3857,7 +4244,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3874,10 +4261,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="F3" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -3886,7 +4273,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3903,10 +4290,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="F4" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -3915,7 +4302,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="300">
   <si>
     <t>API Mode</t>
   </si>
@@ -888,6 +888,60 @@
   </si>
   <si>
     <t>RMA-MG41-1-3</t>
+  </si>
+  <si>
+    <t>RMA-K0R5-001</t>
+  </si>
+  <si>
+    <t>RMA-K0R5-002</t>
+  </si>
+  <si>
+    <t>RMA-K0R5-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL67AAE</t>
+  </si>
+  <si>
+    <t>RMA-K0R5-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL68AAE</t>
+  </si>
+  <si>
+    <t>RMA-K0R5-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL69AAE</t>
+  </si>
+  <si>
+    <t>RMA-K0R5-1-3</t>
+  </si>
+  <si>
+    <t>RMA-TYCL-001</t>
+  </si>
+  <si>
+    <t>RMA-TYCL-002</t>
+  </si>
+  <si>
+    <t>RMA-TYCL-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7KAAU</t>
+  </si>
+  <si>
+    <t>RMA-TYCL-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7LAAU</t>
+  </si>
+  <si>
+    <t>RMA-TYCL-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7MAAU</t>
+  </si>
+  <si>
+    <t>RMA-TYCL-1-3</t>
   </si>
 </sst>
 </file>
@@ -897,7 +951,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="291" x14ac:knownFonts="1">
+  <fonts count="315" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,6 +971,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2655,7 +2853,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="145">
+  <borders count="157">
     <border>
       <left/>
       <right/>
@@ -3095,11 +3293,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="315">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3389,8 +3623,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="142" fillId="0" fontId="286" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="287" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="143" fillId="0" fontId="288" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="290" fillId="0" borderId="144" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="289" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="144" fillId="0" fontId="290" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="291" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="145" fillId="0" fontId="292" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="293" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="146" fillId="0" fontId="294" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="295" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="147" fillId="0" fontId="296" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="297" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="148" fillId="0" fontId="298" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="299" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="149" fillId="0" fontId="300" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="301" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="150" fillId="0" fontId="302" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="303" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="151" fillId="0" fontId="304" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="305" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="152" fillId="0" fontId="306" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="307" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="153" fillId="0" fontId="308" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="309" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="154" fillId="0" fontId="310" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="311" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="155" fillId="0" fontId="312" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="314" fillId="0" borderId="156" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4177,12 +4435,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.57421875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.1328125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.37109375" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4232,10 +4490,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -4244,7 +4502,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4261,10 +4519,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F3" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -4273,7 +4531,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4290,10 +4548,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -4302,7 +4560,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="309">
   <si>
     <t>API Mode</t>
   </si>
@@ -942,6 +942,33 @@
   </si>
   <si>
     <t>RMA-TYCL-1-3</t>
+  </si>
+  <si>
+    <t>RMA-BR6P-001</t>
+  </si>
+  <si>
+    <t>RMA-BR6P-002</t>
+  </si>
+  <si>
+    <t>RMA-BR6P-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLELAA2</t>
+  </si>
+  <si>
+    <t>RMA-BR6P-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLEMAA2</t>
+  </si>
+  <si>
+    <t>RMA-BR6P-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLENAA2</t>
+  </si>
+  <si>
+    <t>RMA-BR6P-1-3</t>
   </si>
 </sst>
 </file>
@@ -951,7 +978,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="315" x14ac:knownFonts="1">
+  <fonts count="327" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,6 +998,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2853,7 +2952,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="157">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -3329,11 +3428,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="315">
+  <cellXfs count="327">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3647,8 +3764,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="154" fillId="0" fontId="310" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="311" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="155" fillId="0" fontId="312" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="314" fillId="0" borderId="156" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="313" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="156" fillId="0" fontId="314" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="315" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="157" fillId="0" fontId="316" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="317" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="158" fillId="0" fontId="318" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="319" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="159" fillId="0" fontId="320" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="321" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="160" fillId="0" fontId="322" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="323" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="161" fillId="0" fontId="324" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="326" fillId="0" borderId="162" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4436,11 +4565,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.27734375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.37109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.03515625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4490,10 +4619,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F2" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -4502,7 +4631,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4519,10 +4648,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F3" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -4531,7 +4660,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4548,10 +4677,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="F4" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -4560,7 +4689,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="318">
   <si>
     <t>API Mode</t>
   </si>
@@ -969,6 +969,33 @@
   </si>
   <si>
     <t>RMA-BR6P-1-3</t>
+  </si>
+  <si>
+    <t>RMA-CFAT-001</t>
+  </si>
+  <si>
+    <t>RMA-CFAT-002</t>
+  </si>
+  <si>
+    <t>RMA-CFAT-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLLHAA2</t>
+  </si>
+  <si>
+    <t>RMA-CFAT-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLLIAA2</t>
+  </si>
+  <si>
+    <t>RMA-CFAT-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLLJAA2</t>
+  </si>
+  <si>
+    <t>RMA-CFAT-1-3</t>
   </si>
 </sst>
 </file>
@@ -978,7 +1005,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="327" x14ac:knownFonts="1">
+  <fonts count="339" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -998,6 +1025,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2952,7 +3051,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="163">
+  <borders count="169">
     <border>
       <left/>
       <right/>
@@ -3446,11 +3545,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="339">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3776,8 +3893,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="160" fillId="0" fontId="322" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="323" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="161" fillId="0" fontId="324" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="326" fillId="0" borderId="162" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="325" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="162" fillId="0" fontId="326" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="327" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="163" fillId="0" fontId="328" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="329" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="164" fillId="0" fontId="330" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="331" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="165" fillId="0" fontId="332" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="333" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="166" fillId="0" fontId="334" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="335" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="167" fillId="0" fontId="336" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="338" fillId="0" borderId="168" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4565,11 +4694,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.27734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.03515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4619,10 +4748,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F2" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -4631,7 +4760,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4648,10 +4777,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F3" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -4660,7 +4789,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4677,10 +4806,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F4" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -4689,7 +4818,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="491">
   <si>
     <t>API Mode</t>
   </si>
@@ -996,6 +996,525 @@
   </si>
   <si>
     <t>RMA-CFAT-1-3</t>
+  </si>
+  <si>
+    <t>RMA-JLO6-001</t>
+  </si>
+  <si>
+    <t>RMA-JLO6-002</t>
+  </si>
+  <si>
+    <t>RMA-JLO6-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQCAA2</t>
+  </si>
+  <si>
+    <t>RMA-JLO6-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQDAA2</t>
+  </si>
+  <si>
+    <t>RMA-JLO6-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQEAA2</t>
+  </si>
+  <si>
+    <t>RMA-JLO6-1-3</t>
+  </si>
+  <si>
+    <t>RMA-OQMG-001</t>
+  </si>
+  <si>
+    <t>RMA-OQMG-002</t>
+  </si>
+  <si>
+    <t>RMA-OQMG-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRoAAM</t>
+  </si>
+  <si>
+    <t>RMA-OQMG-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRpAAM</t>
+  </si>
+  <si>
+    <t>RMA-OQMG-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRqAAM</t>
+  </si>
+  <si>
+    <t>RMA-OQMG-1-3</t>
+  </si>
+  <si>
+    <t>RMA-VUEM-001</t>
+  </si>
+  <si>
+    <t>RMA-VUEM-002</t>
+  </si>
+  <si>
+    <t>RMA-VUEM-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLS8AAM</t>
+  </si>
+  <si>
+    <t>RMA-VUEM-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLS9AAM</t>
+  </si>
+  <si>
+    <t>RMA-VUEM-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSAAA2</t>
+  </si>
+  <si>
+    <t>RMA-VUEM-1-3</t>
+  </si>
+  <si>
+    <t>RMA-F0ZN-001</t>
+  </si>
+  <si>
+    <t>RMA-F0ZN-002</t>
+  </si>
+  <si>
+    <t>RMA-F0ZN-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSDAA2</t>
+  </si>
+  <si>
+    <t>RMA-F0ZN-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSEAA2</t>
+  </si>
+  <si>
+    <t>RMA-F0ZN-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSFAA2</t>
+  </si>
+  <si>
+    <t>RMA-F0ZN-1-3</t>
+  </si>
+  <si>
+    <t>RMA-8MM4-001</t>
+  </si>
+  <si>
+    <t>RMA-8MM4-002</t>
+  </si>
+  <si>
+    <t>RMA-8MM4-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSIAA2</t>
+  </si>
+  <si>
+    <t>RMA-8MM4-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSJAA2</t>
+  </si>
+  <si>
+    <t>RMA-8MM4-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSKAA2</t>
+  </si>
+  <si>
+    <t>RMA-8MM4-1-3</t>
+  </si>
+  <si>
+    <t>RMA-FI09-001</t>
+  </si>
+  <si>
+    <t>RMA-FI09-002</t>
+  </si>
+  <si>
+    <t>RMA-FI09-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLScAAM</t>
+  </si>
+  <si>
+    <t>RMA-FI09-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSdAAM</t>
+  </si>
+  <si>
+    <t>RMA-FI09-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSeAAM</t>
+  </si>
+  <si>
+    <t>RMA-FI09-1-3</t>
+  </si>
+  <si>
+    <t>RMA-EWUV-001</t>
+  </si>
+  <si>
+    <t>RMA-EWUV-002</t>
+  </si>
+  <si>
+    <t>RMA-EWUV-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLU4AAM</t>
+  </si>
+  <si>
+    <t>RMA-EWUV-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLU5AAM</t>
+  </si>
+  <si>
+    <t>RMA-EWUV-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLU6AAM</t>
+  </si>
+  <si>
+    <t>RMA-EWUV-1-3</t>
+  </si>
+  <si>
+    <t>RMA-RENH-001</t>
+  </si>
+  <si>
+    <t>RMA-RENH-002</t>
+  </si>
+  <si>
+    <t>RMA-RENH-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLV2AAM</t>
+  </si>
+  <si>
+    <t>RMA-RENH-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLV3AAM</t>
+  </si>
+  <si>
+    <t>RMA-RENH-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLV4AAM</t>
+  </si>
+  <si>
+    <t>RMA-RENH-1-3</t>
+  </si>
+  <si>
+    <t>RMA-1K76-001</t>
+  </si>
+  <si>
+    <t>RMA-1K76-002</t>
+  </si>
+  <si>
+    <t>RMA-1K76-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLW5AAM</t>
+  </si>
+  <si>
+    <t>RMA-1K76-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLW6AAM</t>
+  </si>
+  <si>
+    <t>RMA-1K76-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLW7AAM</t>
+  </si>
+  <si>
+    <t>RMA-1K76-1-3</t>
+  </si>
+  <si>
+    <t>RMA-7PZQ-001</t>
+  </si>
+  <si>
+    <t>RMA-7PZQ-002</t>
+  </si>
+  <si>
+    <t>RMA-7PZQ-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLWFAA2</t>
+  </si>
+  <si>
+    <t>RMA-7PZQ-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLWGAA2</t>
+  </si>
+  <si>
+    <t>RMA-7PZQ-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLWHAA2</t>
+  </si>
+  <si>
+    <t>RMA-7PZQ-1-3</t>
+  </si>
+  <si>
+    <t>RMA-7WIV-001</t>
+  </si>
+  <si>
+    <t>RMA-7WIV-002</t>
+  </si>
+  <si>
+    <t>RMA-7WIV-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLWtAAM</t>
+  </si>
+  <si>
+    <t>RMA-7WIV-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLWuAAM</t>
+  </si>
+  <si>
+    <t>RMA-7WIV-1-2</t>
+  </si>
+  <si>
+    <t>RMA-15YA-001</t>
+  </si>
+  <si>
+    <t>RMA-15YA-002</t>
+  </si>
+  <si>
+    <t>RMA-15YA-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLWyAAM</t>
+  </si>
+  <si>
+    <t>RMA-15YA-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLWzAAM</t>
+  </si>
+  <si>
+    <t>RMA-15YA-1-2</t>
+  </si>
+  <si>
+    <t>RMA-BSHE-001</t>
+  </si>
+  <si>
+    <t>RMA-BSHE-002</t>
+  </si>
+  <si>
+    <t>RMA-BSHE-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLXIAA2</t>
+  </si>
+  <si>
+    <t>RMA-BSHE-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLXJAA2</t>
+  </si>
+  <si>
+    <t>RMA-BSHE-1-2</t>
+  </si>
+  <si>
+    <t>RMA-ZBAE-001</t>
+  </si>
+  <si>
+    <t>RMA-ZBAE-002</t>
+  </si>
+  <si>
+    <t>RMA-ZBAE-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLY6AAM</t>
+  </si>
+  <si>
+    <t>RMA-ZBAE-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLY7AAM</t>
+  </si>
+  <si>
+    <t>RMA-ZBAE-1-2</t>
+  </si>
+  <si>
+    <t>RMA-AJ81-001</t>
+  </si>
+  <si>
+    <t>RMA-AJ81-002</t>
+  </si>
+  <si>
+    <t>RMA-AJ81-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYVAA2</t>
+  </si>
+  <si>
+    <t>RMA-AJ81-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYWAA2</t>
+  </si>
+  <si>
+    <t>RMA-AJ81-1-2</t>
+  </si>
+  <si>
+    <t>RMA-8DVI-001</t>
+  </si>
+  <si>
+    <t>RMA-8DVI-002</t>
+  </si>
+  <si>
+    <t>RMA-8DVI-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYaAAM</t>
+  </si>
+  <si>
+    <t>RMA-8DVI-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYbAAM</t>
+  </si>
+  <si>
+    <t>RMA-8DVI-1-2</t>
+  </si>
+  <si>
+    <t>RMA-Z1E3-001</t>
+  </si>
+  <si>
+    <t>RMA-Z1E3-002</t>
+  </si>
+  <si>
+    <t>RMA-Z1E3-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYuAAM</t>
+  </si>
+  <si>
+    <t>RMA-Z1E3-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYvAAM</t>
+  </si>
+  <si>
+    <t>RMA-Z1E3-1-2</t>
+  </si>
+  <si>
+    <t>RMA-UT48-001</t>
+  </si>
+  <si>
+    <t>RMA-UT48-002</t>
+  </si>
+  <si>
+    <t>RMA-UT48-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYzAAM</t>
+  </si>
+  <si>
+    <t>RMA-UT48-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLZ0AAM</t>
+  </si>
+  <si>
+    <t>RMA-UT48-1-2</t>
+  </si>
+  <si>
+    <t>RMA-YIJX-001</t>
+  </si>
+  <si>
+    <t>RMA-YIJX-002</t>
+  </si>
+  <si>
+    <t>RMA-YIJX-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLZdAAM</t>
+  </si>
+  <si>
+    <t>RMA-YIJX-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLZeAAM</t>
+  </si>
+  <si>
+    <t>RMA-YIJX-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLZfAAM</t>
+  </si>
+  <si>
+    <t>RMA-YIJX-1-3</t>
+  </si>
+  <si>
+    <t>RMA-HKS7-001</t>
+  </si>
+  <si>
+    <t>RMA-HKS7-002</t>
+  </si>
+  <si>
+    <t>RMA-HKS7-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLc8AAE</t>
+  </si>
+  <si>
+    <t>RMA-HKS7-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLc9AAE</t>
+  </si>
+  <si>
+    <t>RMA-HKS7-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLcAAAU</t>
+  </si>
+  <si>
+    <t>RMA-HKS7-1-3</t>
+  </si>
+  <si>
+    <t>RMA-391D-001</t>
+  </si>
+  <si>
+    <t>RMA-391D-002</t>
+  </si>
+  <si>
+    <t>RMA-391D-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLcIAAU</t>
+  </si>
+  <si>
+    <t>RMA-391D-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLcJAAU</t>
+  </si>
+  <si>
+    <t>RMA-391D-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLcKAAU</t>
+  </si>
+  <si>
+    <t>RMA-391D-1-3</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1524,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="339" x14ac:knownFonts="1">
+  <fonts count="575" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,6 +1544,1422 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3051,7 +4986,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="169">
+  <borders count="287">
     <border>
       <left/>
       <right/>
@@ -3563,11 +5498,365 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="575">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3905,8 +6194,244 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="166" fillId="0" fontId="334" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="335" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="167" fillId="0" fontId="336" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="338" fillId="0" borderId="168" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="337" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="168" fillId="0" fontId="338" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="339" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="169" fillId="0" fontId="340" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="341" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="170" fillId="0" fontId="342" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="343" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="171" fillId="0" fontId="344" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="345" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="172" fillId="0" fontId="346" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="347" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="173" fillId="0" fontId="348" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="349" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="174" fillId="0" fontId="350" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="351" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="175" fillId="0" fontId="352" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="353" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="176" fillId="0" fontId="354" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="355" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="177" fillId="0" fontId="356" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="357" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="178" fillId="0" fontId="358" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="359" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="179" fillId="0" fontId="360" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="361" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="180" fillId="0" fontId="362" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="363" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="181" fillId="0" fontId="364" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="365" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="182" fillId="0" fontId="366" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="367" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="183" fillId="0" fontId="368" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="369" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="184" fillId="0" fontId="370" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="371" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="185" fillId="0" fontId="372" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="373" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="186" fillId="0" fontId="374" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="375" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="187" fillId="0" fontId="376" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="377" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="188" fillId="0" fontId="378" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="379" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="189" fillId="0" fontId="380" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="381" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="190" fillId="0" fontId="382" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="383" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="191" fillId="0" fontId="384" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="385" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="192" fillId="0" fontId="386" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="387" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="193" fillId="0" fontId="388" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="389" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="194" fillId="0" fontId="390" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="391" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="195" fillId="0" fontId="392" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="393" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="196" fillId="0" fontId="394" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="395" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="197" fillId="0" fontId="396" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="397" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="198" fillId="0" fontId="398" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="399" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="199" fillId="0" fontId="400" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="401" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="200" fillId="0" fontId="402" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="403" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="201" fillId="0" fontId="404" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="405" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="202" fillId="0" fontId="406" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="407" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="203" fillId="0" fontId="408" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="409" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="204" fillId="0" fontId="410" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="411" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="205" fillId="0" fontId="412" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="413" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="206" fillId="0" fontId="414" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="415" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="207" fillId="0" fontId="416" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="417" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="208" fillId="0" fontId="418" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="419" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="209" fillId="0" fontId="420" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="421" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="210" fillId="0" fontId="422" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="423" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="211" fillId="0" fontId="424" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="425" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="212" fillId="0" fontId="426" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="427" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="213" fillId="0" fontId="428" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="429" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="214" fillId="0" fontId="430" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="431" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="215" fillId="0" fontId="432" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="433" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="216" fillId="0" fontId="434" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="435" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="217" fillId="0" fontId="436" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="437" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="218" fillId="0" fontId="438" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="439" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="219" fillId="0" fontId="440" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="441" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="220" fillId="0" fontId="442" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="443" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="221" fillId="0" fontId="444" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="445" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="222" fillId="0" fontId="446" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="447" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="223" fillId="0" fontId="448" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="449" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="224" fillId="0" fontId="450" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="451" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="225" fillId="0" fontId="452" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="453" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="226" fillId="0" fontId="454" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="455" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="227" fillId="0" fontId="456" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="457" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="228" fillId="0" fontId="458" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="459" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="229" fillId="0" fontId="460" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="461" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="230" fillId="0" fontId="462" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="463" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="231" fillId="0" fontId="464" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="465" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="232" fillId="0" fontId="466" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="467" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="233" fillId="0" fontId="468" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="469" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="234" fillId="0" fontId="470" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="471" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="235" fillId="0" fontId="472" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="473" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="236" fillId="0" fontId="474" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="475" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="237" fillId="0" fontId="476" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="477" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="238" fillId="0" fontId="478" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="479" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="239" fillId="0" fontId="480" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="481" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="240" fillId="0" fontId="482" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="483" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="241" fillId="0" fontId="484" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="485" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="242" fillId="0" fontId="486" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="487" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="243" fillId="0" fontId="488" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="489" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="244" fillId="0" fontId="490" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="491" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="245" fillId="0" fontId="492" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="493" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="246" fillId="0" fontId="494" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="495" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="247" fillId="0" fontId="496" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="497" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="248" fillId="0" fontId="498" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="499" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="249" fillId="0" fontId="500" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="501" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="250" fillId="0" fontId="502" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="503" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="251" fillId="0" fontId="504" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="505" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="252" fillId="0" fontId="506" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="507" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="253" fillId="0" fontId="508" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="509" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="254" fillId="0" fontId="510" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="511" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="255" fillId="0" fontId="512" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="513" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="256" fillId="0" fontId="514" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="515" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="257" fillId="0" fontId="516" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="517" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="258" fillId="0" fontId="518" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="519" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="259" fillId="0" fontId="520" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="521" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="260" fillId="0" fontId="522" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="523" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="261" fillId="0" fontId="524" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="525" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="262" fillId="0" fontId="526" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="527" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="263" fillId="0" fontId="528" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="529" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="264" fillId="0" fontId="530" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="531" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="265" fillId="0" fontId="532" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="533" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="266" fillId="0" fontId="534" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="535" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="267" fillId="0" fontId="536" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="537" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="268" fillId="0" fontId="538" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="539" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="269" fillId="0" fontId="540" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="541" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="270" fillId="0" fontId="542" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="543" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="271" fillId="0" fontId="544" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="545" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="272" fillId="0" fontId="546" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="547" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="273" fillId="0" fontId="548" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="549" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="274" fillId="0" fontId="550" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="551" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="275" fillId="0" fontId="552" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="553" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="276" fillId="0" fontId="554" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="555" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="277" fillId="0" fontId="556" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="557" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="278" fillId="0" fontId="558" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="559" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="279" fillId="0" fontId="560" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="561" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="280" fillId="0" fontId="562" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="563" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="281" fillId="0" fontId="564" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="565" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="282" fillId="0" fontId="566" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="567" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="283" fillId="0" fontId="568" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="569" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="284" fillId="0" fontId="570" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="571" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="285" fillId="0" fontId="572" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="574" fillId="0" borderId="286" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4694,11 +7219,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.44921875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4748,10 +7273,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>309</v>
+        <v>482</v>
       </c>
       <c r="F2" t="s">
-        <v>313</v>
+        <v>486</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -4760,7 +7285,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>312</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4777,10 +7302,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>310</v>
+        <v>483</v>
       </c>
       <c r="F3" t="s">
-        <v>315</v>
+        <v>488</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -4789,7 +7314,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>314</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4806,10 +7331,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>311</v>
+        <v>484</v>
       </c>
       <c r="F4" t="s">
-        <v>317</v>
+        <v>490</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -4818,7 +7343,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>316</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="527">
   <si>
     <t>API Mode</t>
   </si>
@@ -1515,6 +1515,114 @@
   </si>
   <si>
     <t>RMA-391D-1-3</t>
+  </si>
+  <si>
+    <t>RMA-478W-001</t>
+  </si>
+  <si>
+    <t>RMA-478W-002</t>
+  </si>
+  <si>
+    <t>RMA-478W-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMAPAA2</t>
+  </si>
+  <si>
+    <t>RMA-478W-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMAQAA2</t>
+  </si>
+  <si>
+    <t>RMA-478W-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMARAA2</t>
+  </si>
+  <si>
+    <t>RMA-478W-1-3</t>
+  </si>
+  <si>
+    <t>RMA-K3US-001</t>
+  </si>
+  <si>
+    <t>RMA-K3US-002</t>
+  </si>
+  <si>
+    <t>RMA-K3US-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrTAAU</t>
+  </si>
+  <si>
+    <t>RMA-K3US-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrUAAU</t>
+  </si>
+  <si>
+    <t>RMA-K3US-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrVAAU</t>
+  </si>
+  <si>
+    <t>RMA-K3US-1-3</t>
+  </si>
+  <si>
+    <t>RMA-VCUF-001</t>
+  </si>
+  <si>
+    <t>RMA-VCUF-002</t>
+  </si>
+  <si>
+    <t>RMA-VCUF-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrdAAE</t>
+  </si>
+  <si>
+    <t>RMA-VCUF-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMreAAE</t>
+  </si>
+  <si>
+    <t>RMA-VCUF-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrfAAE</t>
+  </si>
+  <si>
+    <t>RMA-VCUF-1-3</t>
+  </si>
+  <si>
+    <t>RMA-PU7Q-001</t>
+  </si>
+  <si>
+    <t>RMA-PU7Q-002</t>
+  </si>
+  <si>
+    <t>RMA-PU7Q-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMsgAAE</t>
+  </si>
+  <si>
+    <t>RMA-PU7Q-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMshAAE</t>
+  </si>
+  <si>
+    <t>RMA-PU7Q-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMsiAAE</t>
+  </si>
+  <si>
+    <t>RMA-PU7Q-1-3</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1632,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="575" x14ac:knownFonts="1">
+  <fonts count="623" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1544,6 +1652,294 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -4986,7 +5382,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="287">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -5852,11 +6248,83 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="575">
+  <cellXfs count="623">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -6430,8 +6898,56 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="284" fillId="0" fontId="570" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="571" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="285" fillId="0" fontId="572" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="574" fillId="0" borderId="286" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="573" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="286" fillId="0" fontId="574" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="575" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="287" fillId="0" fontId="576" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="577" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="288" fillId="0" fontId="578" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="579" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="289" fillId="0" fontId="580" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="581" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="290" fillId="0" fontId="582" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="583" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="291" fillId="0" fontId="584" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="585" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="292" fillId="0" fontId="586" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="587" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="293" fillId="0" fontId="588" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="589" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="294" fillId="0" fontId="590" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="591" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="295" fillId="0" fontId="592" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="593" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="296" fillId="0" fontId="594" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="595" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="297" fillId="0" fontId="596" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="597" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="298" fillId="0" fontId="598" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="599" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="299" fillId="0" fontId="600" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="601" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="300" fillId="0" fontId="602" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="603" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="301" fillId="0" fontId="604" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="605" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="302" fillId="0" fontId="606" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="607" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="303" fillId="0" fontId="608" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="609" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="304" fillId="0" fontId="610" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="611" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="305" fillId="0" fontId="612" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="613" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="306" fillId="0" fontId="614" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="615" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="307" fillId="0" fontId="616" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="617" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="308" fillId="0" fontId="618" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="619" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="309" fillId="0" fontId="620" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="622" fillId="0" borderId="310" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -7219,11 +7735,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.77734375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.44921875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.01171875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -7273,10 +7789,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -7285,7 +7801,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -7302,10 +7818,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="F3" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -7314,7 +7830,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -7331,10 +7847,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="F4" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -7343,7 +7859,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="590">
   <si>
     <t>API Mode</t>
   </si>
@@ -1650,6 +1650,168 @@
   </si>
   <si>
     <t>RMA-Q190-1-3</t>
+  </si>
+  <si>
+    <t>RMA-WQSG-001</t>
+  </si>
+  <si>
+    <t>RMA-WQSG-002</t>
+  </si>
+  <si>
+    <t>RMA-WQSG-003</t>
+  </si>
+  <si>
+    <t>RMA-32R9-001</t>
+  </si>
+  <si>
+    <t>RMA-32R9-002</t>
+  </si>
+  <si>
+    <t>RMA-32R9-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNg3AAE</t>
+  </si>
+  <si>
+    <t>RMA-32R9-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNg4AAE</t>
+  </si>
+  <si>
+    <t>RMA-32R9-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNg5AAE</t>
+  </si>
+  <si>
+    <t>RMA-32R9-1-3</t>
+  </si>
+  <si>
+    <t>RMA-B9AC-001</t>
+  </si>
+  <si>
+    <t>RMA-B9AC-002</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNg8AAE</t>
+  </si>
+  <si>
+    <t>RMA-B9AC-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNg9AAE</t>
+  </si>
+  <si>
+    <t>RMA-B9AC-1-2</t>
+  </si>
+  <si>
+    <t>RMA-0F3S-001</t>
+  </si>
+  <si>
+    <t>RMA-0F3S-002</t>
+  </si>
+  <si>
+    <t>RMA-0F3S-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNp0AAE</t>
+  </si>
+  <si>
+    <t>RMA-0F3S-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNp1AAE</t>
+  </si>
+  <si>
+    <t>RMA-0F3S-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNp2AAE</t>
+  </si>
+  <si>
+    <t>RMA-0F3S-1-3</t>
+  </si>
+  <si>
+    <t>RMA-R3OL-001</t>
+  </si>
+  <si>
+    <t>RMA-R3OL-002</t>
+  </si>
+  <si>
+    <t>RMA-R3OL-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNuAAAU</t>
+  </si>
+  <si>
+    <t>RMA-R3OL-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNuBAAU</t>
+  </si>
+  <si>
+    <t>RMA-R3OL-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNuCAAU</t>
+  </si>
+  <si>
+    <t>RMA-R3OL-1-3</t>
+  </si>
+  <si>
+    <t>RMA-5O8Y-001</t>
+  </si>
+  <si>
+    <t>RMA-5O8Y-002</t>
+  </si>
+  <si>
+    <t>RMA-5O8Y-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNuPAAU</t>
+  </si>
+  <si>
+    <t>RMA-5O8Y-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNuQAAU</t>
+  </si>
+  <si>
+    <t>RMA-5O8Y-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNuRAAU</t>
+  </si>
+  <si>
+    <t>RMA-5O8Y-1-3</t>
+  </si>
+  <si>
+    <t>RMA-Y45P-001</t>
+  </si>
+  <si>
+    <t>RMA-Y45P-002</t>
+  </si>
+  <si>
+    <t>RMA-Y45P-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNvDAAU</t>
+  </si>
+  <si>
+    <t>RMA-Y45P-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNvEAAU</t>
+  </si>
+  <si>
+    <t>RMA-Y45P-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNvFAAU</t>
+  </si>
+  <si>
+    <t>RMA-Y45P-1-3</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1821,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="635" x14ac:knownFonts="1">
+  <fonts count="711" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1679,6 +1841,462 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -5481,7 +6099,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="317">
+  <borders count="355">
     <border>
       <left/>
       <right/>
@@ -6437,11 +7055,125 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="635">
+  <cellXfs count="711">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -7075,8 +7807,84 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="314" fillId="0" fontId="630" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="631" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="315" fillId="0" fontId="632" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="634" fillId="0" borderId="316" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="633" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="316" fillId="0" fontId="634" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="635" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="317" fillId="0" fontId="636" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="637" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="318" fillId="0" fontId="638" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="639" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="319" fillId="0" fontId="640" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="641" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="320" fillId="0" fontId="642" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="643" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="321" fillId="0" fontId="644" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="645" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="322" fillId="0" fontId="646" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="647" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="323" fillId="0" fontId="648" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="649" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="324" fillId="0" fontId="650" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="651" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="325" fillId="0" fontId="652" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="653" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="326" fillId="0" fontId="654" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="655" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="327" fillId="0" fontId="656" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="657" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="328" fillId="0" fontId="658" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="659" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="329" fillId="0" fontId="660" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="661" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="330" fillId="0" fontId="662" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="663" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="331" fillId="0" fontId="664" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="665" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="332" fillId="0" fontId="666" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="667" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="333" fillId="0" fontId="668" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="669" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="334" fillId="0" fontId="670" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="671" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="335" fillId="0" fontId="672" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="673" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="336" fillId="0" fontId="674" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="675" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="337" fillId="0" fontId="676" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="677" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="338" fillId="0" fontId="678" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="679" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="339" fillId="0" fontId="680" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="681" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="340" fillId="0" fontId="682" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="683" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="341" fillId="0" fontId="684" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="685" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="342" fillId="0" fontId="686" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="687" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="343" fillId="0" fontId="688" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="689" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="344" fillId="0" fontId="690" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="691" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="345" fillId="0" fontId="692" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="693" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="346" fillId="0" fontId="694" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="695" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="347" fillId="0" fontId="696" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="697" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="348" fillId="0" fontId="698" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="699" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="349" fillId="0" fontId="700" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="701" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="350" fillId="0" fontId="702" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="703" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="351" fillId="0" fontId="704" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="705" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="352" fillId="0" fontId="706" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="707" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="353" fillId="0" fontId="708" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="710" fillId="0" borderId="354" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -7864,11 +8672,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.4609375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.07421875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.52734375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -7918,10 +8726,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>527</v>
+        <v>581</v>
       </c>
       <c r="F2" t="s">
-        <v>531</v>
+        <v>585</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -7930,7 +8738,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>530</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -7947,10 +8755,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>528</v>
+        <v>582</v>
       </c>
       <c r="F3" t="s">
-        <v>533</v>
+        <v>587</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -7959,7 +8767,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>532</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -7976,10 +8784,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>529</v>
+        <v>583</v>
       </c>
       <c r="F4" t="s">
-        <v>535</v>
+        <v>589</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -7988,7 +8796,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>534</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="634">
   <si>
     <t>API Mode</t>
   </si>
@@ -1812,6 +1812,138 @@
   </si>
   <si>
     <t>RMA-Y45P-1-3</t>
+  </si>
+  <si>
+    <t>RMA-E7CX-001</t>
+  </si>
+  <si>
+    <t>RMA-E7CX-002</t>
+  </si>
+  <si>
+    <t>RMA-E7CX-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xO8qAAE</t>
+  </si>
+  <si>
+    <t>RMA-E7CX-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xO8rAAE</t>
+  </si>
+  <si>
+    <t>RMA-E7CX-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xO8sAAE</t>
+  </si>
+  <si>
+    <t>RMA-E7CX-1-3</t>
+  </si>
+  <si>
+    <t>RMA-NCUU-001</t>
+  </si>
+  <si>
+    <t>RMA-NCUU-002</t>
+  </si>
+  <si>
+    <t>RMA-NCUU-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xO9KAAU</t>
+  </si>
+  <si>
+    <t>RMA-NCUU-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xO9LAAU</t>
+  </si>
+  <si>
+    <t>RMA-NCUU-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xO9MAAU</t>
+  </si>
+  <si>
+    <t>RMA-NCUU-1-3</t>
+  </si>
+  <si>
+    <t>RMA-9FGT-001</t>
+  </si>
+  <si>
+    <t>RMA-9FGT-002</t>
+  </si>
+  <si>
+    <t>a7s5f000000xOJzAAM</t>
+  </si>
+  <si>
+    <t>RMA-9FGT-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xOK0AAM</t>
+  </si>
+  <si>
+    <t>RMA-9FGT-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xOK1AAM</t>
+  </si>
+  <si>
+    <t>RMA-9FGT-1-3</t>
+  </si>
+  <si>
+    <t>RMA-8L2M-001</t>
+  </si>
+  <si>
+    <t>RMA-8L2M-002</t>
+  </si>
+  <si>
+    <t>RMA-8L2M-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xOScAAM</t>
+  </si>
+  <si>
+    <t>RMA-8L2M-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xOSdAAM</t>
+  </si>
+  <si>
+    <t>RMA-8L2M-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xOSeAAM</t>
+  </si>
+  <si>
+    <t>RMA-8L2M-1-3</t>
+  </si>
+  <si>
+    <t>RMA-EZ33-001</t>
+  </si>
+  <si>
+    <t>RMA-EZ33-002</t>
+  </si>
+  <si>
+    <t>RMA-EZ33-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xOboAAE</t>
+  </si>
+  <si>
+    <t>RMA-EZ33-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xObpAAE</t>
+  </si>
+  <si>
+    <t>RMA-EZ33-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xObqAAE</t>
+  </si>
+  <si>
+    <t>RMA-EZ33-1-3</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1953,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="711" x14ac:knownFonts="1">
+  <fonts count="771" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1841,6 +1973,366 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -6099,7 +6591,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="355">
+  <borders count="385">
     <border>
       <left/>
       <right/>
@@ -7169,11 +7661,101 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="711">
+  <cellXfs count="771">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -7883,8 +8465,68 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="352" fillId="0" fontId="706" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="707" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="353" fillId="0" fontId="708" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="710" fillId="0" borderId="354" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="709" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="354" fillId="0" fontId="710" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="711" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="355" fillId="0" fontId="712" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="713" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="356" fillId="0" fontId="714" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="715" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="357" fillId="0" fontId="716" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="717" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="358" fillId="0" fontId="718" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="719" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="359" fillId="0" fontId="720" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="721" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="360" fillId="0" fontId="722" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="723" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="361" fillId="0" fontId="724" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="725" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="362" fillId="0" fontId="726" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="727" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="363" fillId="0" fontId="728" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="729" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="364" fillId="0" fontId="730" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="731" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="365" fillId="0" fontId="732" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="733" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="366" fillId="0" fontId="734" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="735" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="367" fillId="0" fontId="736" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="737" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="368" fillId="0" fontId="738" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="739" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="369" fillId="0" fontId="740" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="741" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="370" fillId="0" fontId="742" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="743" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="371" fillId="0" fontId="744" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="745" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="372" fillId="0" fontId="746" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="747" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="373" fillId="0" fontId="748" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="749" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="374" fillId="0" fontId="750" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="751" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="375" fillId="0" fontId="752" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="753" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="376" fillId="0" fontId="754" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="755" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="377" fillId="0" fontId="756" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="757" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="378" fillId="0" fontId="758" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="759" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="379" fillId="0" fontId="760" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="761" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="380" fillId="0" fontId="762" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="763" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="381" fillId="0" fontId="764" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="765" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="382" fillId="0" fontId="766" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="767" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="383" fillId="0" fontId="768" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="769" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="770" fillId="0" borderId="384" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -8672,11 +9314,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.07421875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.96875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.88671875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -8726,10 +9368,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>581</v>
+        <v>625</v>
       </c>
       <c r="F2" t="s">
-        <v>585</v>
+        <v>629</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -8738,7 +9380,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>584</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -8755,10 +9397,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>582</v>
+        <v>626</v>
       </c>
       <c r="F3" t="s">
-        <v>587</v>
+        <v>631</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -8767,7 +9409,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>586</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -8784,10 +9426,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>583</v>
+        <v>627</v>
       </c>
       <c r="F4" t="s">
-        <v>589</v>
+        <v>633</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -8796,7 +9438,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>588</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
